--- a/generate_cards/Version_1.0/papers_v1.0.xlsx
+++ b/generate_cards/Version_1.0/papers_v1.0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROG\Desktop\RoboTwin 2.0 Citation Overview\generate_cards\Version_1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D24684A-6007-4EEE-9485-00715577230D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1503657-3E3B-46C6-BB17-DDEA7F1D515F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -253,21 +253,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>../img/tab_v1.0_img/Multi-robot collaborative manufacturing driven by digital twins_img.jpg</t>
-  </si>
-  <si>
     <t>../img/tab_v1.0_img/AirExo-2_img.png</t>
   </si>
   <si>
-    <t>../img/tab_v1.0_img/RoboTwin 2.0_img.png</t>
-  </si>
-  <si>
     <t>../img/tab_v1.0_img/AutoBio_img.png</t>
   </si>
   <si>
-    <t>../img/tab_v1.0_img/Vision-Language-Action Models for Robotics_img.png</t>
-  </si>
-  <si>
     <t>../img/tab_v1.0_img/RoboTransfer_img.png</t>
   </si>
   <si>
@@ -280,31 +271,40 @@
     <t>../img/tab_v1.0_img/WorldEval_img.png</t>
   </si>
   <si>
-    <t>../img/tab_v1.0_img/Information-Theoretic Graph Fusion.png</t>
-  </si>
-  <si>
-    <t>../img/tab_v1.0_img/Benchmarking Generalizable Bimanual Manipulation_img.png</t>
-  </si>
-  <si>
     <t>../img/tab_v1.0_img/GWM_img.png</t>
   </si>
   <si>
     <t>../img/tab_v1.0_img/HyCodePolicy_img.png</t>
   </si>
   <si>
-    <t>../img/tab_v1.0_img/Design and Development_img.jpg</t>
-  </si>
-  <si>
     <t>../img/tab_v1.0_img/ArtGS_img.png</t>
   </si>
   <si>
-    <t>../img/tab_v1.0_img/Light Future_img.png</t>
-  </si>
-  <si>
-    <t>../img/tab_v1.0_img/Recipe for Vision-Language-Action Models in Robotic Manipulation_img.png</t>
-  </si>
-  <si>
-    <t>../img/tab_v1.0_img/Linear Algebraic Properties_img.png</t>
+    <t>../img/tab_v1.0_img/Multi-robot-collaborative-manufacturing-driven-by-digital-twins_img.jpg</t>
+  </si>
+  <si>
+    <t>../img/tab_v1.0_img/RoboTwin-2.0_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_v1.0_img/Vision-Language-Action-Models-for-Robotics_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_v1.0_img/Information-Theoretic-Graph-Fusion.png</t>
+  </si>
+  <si>
+    <t>../img/tab_v1.0_img/Benchmarking-Generalizable-Bimanual-Manipulation_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_v1.0_img/Design-and-Development_img.jpg</t>
+  </si>
+  <si>
+    <t>../img/tab_v1.0_img/Light-Future_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_v1.0_img/Recipe-for-Vision-Language-Action-Models-in-Robotic-Manipulation_img.png</t>
+  </si>
+  <si>
+    <t>../img/tab_v1.0_img/Linear-Algebraic-Properties_img.png</t>
   </si>
 </sst>
 </file>
@@ -676,7 +676,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.25"/>
@@ -707,7 +707,7 @@
         <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -724,7 +724,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>25</v>
@@ -741,7 +741,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>28</v>
@@ -758,7 +758,7 @@
         <v>8</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>31</v>
@@ -775,7 +775,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>34</v>
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>37</v>
@@ -809,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>41</v>
@@ -826,7 +826,7 @@
         <v>12</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>42</v>
@@ -843,7 +843,7 @@
         <v>13</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>45</v>
@@ -860,7 +860,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>48</v>
@@ -877,7 +877,7 @@
         <v>15</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>51</v>
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>54</v>
@@ -911,7 +911,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>57</v>
@@ -928,7 +928,7 @@
         <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>60</v>
